--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32-35</t>
+          <t>33-35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
